--- a/team/stock/任務分配.xlsx
+++ b/team/stock/任務分配.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/github/presonal_project/team/stock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819F8947-D8B1-B54F-B861-B49C92AE99A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1E971E8-E174-FD4C-988E-A1E14E4981D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B625C7F5-686B-5648-B835-6E4C62421E78}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +101,133 @@
   <si>
     <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10種必知的公司估值方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.stockfeel.com.tw/10-%E7%A8%AE%E5%BF%85%E7%9F%A5%E7%9A%84%E5%85%AC%E5%8F%B8%E4%BC%B0%E5%80%BC%E6%96%B9%E6%B3%95/</t>
+  </si>
+  <si>
+    <t>如何快速從財報中判斷公司的問題（上）資產負債表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.stockfeel.com.tw/%e5%bf%ab%e9%80%9f-%e8%b2%a1%e5%a0%b1-%e5%88%a4%e6%96%b7-%e5%85%ac%e5%8f%b8-%e5%95%8f%e9%a1%8c-%e8%b3%87%e7%94%a2%e8%b2%a0%e5%82%b5%e8%a1%a8/</t>
+  </si>
+  <si>
+    <t>如何快速從財報中判斷公司的問題（中）損益表</t>
+  </si>
+  <si>
+    <t>如何快速從財報中判斷公司的問題（下）現金流量表</t>
+  </si>
+  <si>
+    <t>https://www.stockfeel.com.tw/%E5%BF%AB%E9%80%9F-%E8%B2%A1%E5%A0%B1-%E5%88%A4%E6%96%B7-%E5%85%AC%E5%8F%B8-%E5%95%8F%E9%A1%8C-%E6%90%8D%E7%9B%8A%E8%A1%A8/</t>
+  </si>
+  <si>
+    <t>https://www.stockfeel.com.tw/%e5%bf%ab%e9%80%9f-%e8%b2%a1%e5%a0%b1-%e5%88%a4%e6%96%b7-%e5%85%ac%e5%8f%b8-%e5%95%8f%e9%a1%8c-%e7%8f%be%e9%87%91%e6%b5%81%e9%87%8f%e8%a1%a8/</t>
+  </si>
+  <si>
+    <t>基本面投資祕技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.edh.tw/article/25479/2</t>
+  </si>
+  <si>
+    <t>會計師看時事》收入總額與淨額法 判斷有學問</t>
+  </si>
+  <si>
+    <t>https://www2.deloitte.com/tw/tc/pages/audit/articles/newsletter-11-80.html</t>
+  </si>
+  <si>
+    <t>硬到靠背的立論分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://publish.get.com.tw/bookpre_pdf/51mg022202-1.pdf</t>
+  </si>
+  <si>
+    <t>資產負載表統整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.stockfeel.com.tw/%e5%a6%82%e4%bd%95%e7%9c%8b%e6%87%82%e4%b8%8a%e5%b8%82%e5%85%ac%e5%8f%b8%e8%b2%a1%e5%a0%b1%e7%b3%bb%e5%88%97%ef%bc%9a%e8%b3%87%e7%94%a2%e8%b2%a0%e5%82%b5%e8%a1%a8%e7%af%87/</t>
+  </si>
+  <si>
+    <t>財報基本名詞語解釋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>籌碼面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市場派、公司派如何互搶經營權？4種招式稀釋敵方持股，一文看懂經營權爭奪內幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主力會用什麼手法躲避散戶追蹤？</t>
+  </si>
+  <si>
+    <t>https://www.thenewslens.com/article/141004</t>
+  </si>
+  <si>
+    <t>技術面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.storm.mg/lifestyle/4637315?page=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老貓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>交易的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個基本步驟，計劃你的交易，交易你的計劃</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -109,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +252,77 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="PingFang TC"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,24 +342,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,154 +699,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918367C0-D4EA-DC47-9D0D-406EF5E0D582}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="185" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
-    <col min="20" max="20" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
+    <col min="13" max="15" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="12.6640625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="19.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" style="1" customWidth="1"/>
+    <col min="21" max="26" width="10.83203125" style="1"/>
+    <col min="27" max="27" width="29.83203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="16.83203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="67.1640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" t="s">
+    <row r="1" spans="1:33">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="R1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="V1" s="2" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="V1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="B2" t="s">
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="AA1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="B3" s="1">
+      <c r="AA2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="20">
+      <c r="B3" s="3">
         <v>45047</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>45047</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>45047</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <v>45074</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="1">
+      <c r="S3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="3">
         <v>45048</v>
       </c>
+      <c r="AA3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="17">
+      <c r="AA4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" s="8"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="S5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="8"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="AA6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE6" s="8"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="AA7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE7" s="8"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="AA8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE8" s="8"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="AA9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE9" s="8"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="AA10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE10" s="8"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="AE11" s="8"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="AE12" s="8"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="AE13" s="8"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="AE14" s="8"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="AE15" s="8"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="AE16" s="8"/>
+    </row>
+    <row r="17" spans="31:31">
+      <c r="AE17" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AE3:AE17"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:H1"/>
@@ -628,6 +1013,11 @@
     <mergeCell ref="R1:T1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="AA5" r:id="rId1" display="https://www.stockfeel.com.tw/%E5%BF%AB%E9%80%9F-%E8%B2%A1%E5%A0%B1-%E5%88%A4%E6%96%B7-%E5%85%AC%E5%8F%B8-%E5%95%8F%E9%A1%8C-%E6%90%8D%E7%9B%8A%E8%A1%A8/" xr:uid="{7CE8C2E6-8680-CE4B-AFE9-9965F96070A0}"/>
+    <hyperlink ref="AA6" r:id="rId2" display="https://www.stockfeel.com.tw/%E5%BF%AB%E9%80%9F-%E8%B2%A1%E5%A0%B1-%E5%88%A4%E6%96%B7-%E5%85%AC%E5%8F%B8-%E5%95%8F%E9%A1%8C-%E7%8F%BE%E9%87%91%E6%B5%81%E9%87%8F%E8%A1%A8/" xr:uid="{7E074423-0D04-D643-A860-C8DA3B740B9D}"/>
+    <hyperlink ref="AD3" r:id="rId3" xr:uid="{4F69B2C1-F14E-804C-8D76-F2757BADE1D2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>